--- a/src/main/resources/excelTemp/planningTemp.xlsx
+++ b/src/main/resources/excelTemp/planningTemp.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="月份波段表" sheetId="2" r:id="rId2"/>
-    <sheet name="品类表" sheetId="3" r:id="rId3"/>
-    <sheet name="中类表" sheetId="4" r:id="rId4"/>
-    <sheet name="小类表" sheetId="5" r:id="rId5"/>
+    <sheet name="月份波段表" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="品类表" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="中类表" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="小类表" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
